--- a/CodeSystem-discharge-medication-cs.xlsx
+++ b/CodeSystem-discharge-medication-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T14:41:09+00:00</t>
+    <t>2025-10-23T09:05:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
